--- a/docs/Logical_Schema.xlsx
+++ b/docs/Logical_Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F77DA-21BE-4704-BC83-FC292F007181}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FE031-B5D9-4293-A361-C868749FA8A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="-80" windowWidth="14400" windowHeight="7360" xr2:uid="{F3A69DC3-4D3F-4B56-8DBC-062F1BF364F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3A69DC3-4D3F-4B56-8DBC-062F1BF364F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>ISBN</t>
   </si>
@@ -147,9 +147,6 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>item_price</t>
   </si>
   <si>
@@ -169,13 +166,19 @@
   </si>
   <si>
     <t>Book_details</t>
+  </si>
+  <si>
+    <t>Order_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All book_id fields reference book's book_id. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1685,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3FF16B-F344-4345-87E1-385178718014}">
-  <dimension ref="C1:M29"/>
+  <dimension ref="C1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1712,7 +1726,7 @@
     </row>
     <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1758,7 +1772,7 @@
     </row>
     <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1773,7 +1787,7 @@
     </row>
     <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1874,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -1979,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>31</v>
@@ -1988,7 +2002,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2007,7 +2021,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="s">
@@ -2029,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>12</v>
@@ -2078,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>36</v>
@@ -2087,7 +2101,7 @@
         <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2111,7 +2125,7 @@
     </row>
     <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2129,13 +2143,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>34</v>
@@ -2162,7 +2176,7 @@
     </row>
     <row r="28" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2180,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2192,6 +2206,11 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/docs/Logical_Schema.xlsx
+++ b/docs/Logical_Schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FE031-B5D9-4293-A361-C868749FA8A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972582EE-08F6-47D4-A401-693928F718A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3A69DC3-4D3F-4B56-8DBC-062F1BF364F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>ISBN</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">All book_id fields reference book's book_id. </t>
+  </si>
+  <si>
+    <t>is_bestseller</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +299,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,15 +764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>404299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:colOff>594799</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>612694</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>803194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -781,8 +787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2336513" y="952500"/>
-          <a:ext cx="3954895" cy="2603500"/>
+          <a:off x="2531549" y="1240971"/>
+          <a:ext cx="4735945" cy="2617108"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -916,7 +922,7 @@
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>470554</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99786</xdr:rowOff>
@@ -1042,7 +1048,7 @@
       <xdr:rowOff>8372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>634408</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>189801</xdr:rowOff>
@@ -1699,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3FF16B-F344-4345-87E1-385178718014}">
-  <dimension ref="C1:M31"/>
+  <dimension ref="C1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,18 +1719,19 @@
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1744,20 +1751,23 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1769,8 +1779,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1784,8 +1795,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1807,8 +1819,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1820,8 +1833,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1835,8 +1849,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1854,8 +1869,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1867,8 +1883,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1882,8 +1899,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1902,13 +1920,14 @@
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1920,8 +1939,9 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1955,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +1977,9 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1969,8 +1991,9 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1984,33 +2007,37 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2021,9 +2048,10 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M18" s="4"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
@@ -2037,8 +2065,9 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -2058,8 +2087,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2071,8 +2101,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
@@ -2086,8 +2117,9 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
@@ -2109,8 +2141,9 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2122,8 +2155,9 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
@@ -2137,8 +2171,9 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
@@ -2160,8 +2195,9 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2173,8 +2209,9 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
@@ -2188,8 +2225,9 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2205,8 +2243,9 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>46</v>
       </c>
